--- a/mcmaster_excel/Stainless_Steel_Extra-Wide_Truss_Head_Slotted_Screws.xlsx
+++ b/mcmaster_excel/Stainless_Steel_Extra-Wide_Truss_Head_Slotted_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,103 +434,159 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Min.Thread Lg.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>Lg.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Min.Thread Lg.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadDia.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Head Ht.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Specifications Met</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>3/16"</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.257"</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.069"</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>91785A089</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>$4.50</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>4-40</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -570,21 +626,29 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>91785A089</t>
+          <t>91785A092</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>$4.50</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -624,21 +688,29 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>91785A092</t>
+          <t>91785A108</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -678,21 +750,29 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>91785A108</t>
+          <t>91785A096</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -732,21 +812,29 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>91785A096</t>
+          <t>91785A115</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -761,12 +849,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.257"</t>
+          <t>0.321"</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.069"</t>
+          <t>0.086"</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -786,39 +874,91 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>91785A115</t>
+          <t>91785A142</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>1/4"</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.321"</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.086"</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>91785A144</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>6-32</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -858,21 +998,29 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>91785A142</t>
+          <t>91785A145</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -912,21 +1060,29 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>91785A144</t>
+          <t>91785A146</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -966,21 +1122,29 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>91785A145</t>
+          <t>91785A148</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1020,21 +1184,29 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>91785A146</t>
+          <t>91785A151</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1074,21 +1246,29 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>91785A148</t>
+          <t>91785A153</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>6.99</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1103,12 +1283,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.321"</t>
+          <t>0.384"</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.086"</t>
+          <t>0.102"</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1128,21 +1308,29 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>91785A151</t>
+          <t>91785A190</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>7.24</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1157,12 +1345,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.321"</t>
+          <t>0.384"</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.086"</t>
+          <t>0.102"</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1182,39 +1370,91 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>91785A153</t>
+          <t>91785A191</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>8.91</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>3/8"</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.384"</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.102"</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>91785A192</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>8-32</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1254,21 +1494,29 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>91785A190</t>
+          <t>91785A193</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1308,21 +1556,29 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>91785A191</t>
+          <t>91785A194</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>8.22</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1362,21 +1618,29 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>91785A192</t>
+          <t>91785A196</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>8.38</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1416,21 +1680,29 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>91785A193</t>
+          <t>91785A197</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>8.90</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1470,21 +1742,29 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>91785A194</t>
+          <t>91785A199</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>9.27</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+          <t>13.92</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1524,21 +1804,29 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>91785A196</t>
+          <t>91785A201</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>9.48</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1573,26 +1861,34 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>91785A197</t>
+          <t>91785A203</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>10.02</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1607,12 +1903,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.384"</t>
+          <t>0.448"</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.102"</t>
+          <t>0.128"</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1632,21 +1928,29 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>91785A199</t>
+          <t>91785A238</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>13.92</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1661,12 +1965,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.384"</t>
+          <t>0.448"</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.102"</t>
+          <t>0.128"</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1686,21 +1990,29 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>91785A201</t>
+          <t>91785A240</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>14.04</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1715,12 +2027,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.384"</t>
+          <t>0.448"</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.102"</t>
+          <t>0.128"</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1735,44 +2047,96 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>91785A203</t>
+          <t>91785A242</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>9.05</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>5/8"</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.448"</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.128"</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>91785A244</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>14.35</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
           <t>10-24</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1812,21 +2176,29 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>91785A238</t>
+          <t>91785A245</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1861,26 +2233,34 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>91785A240</t>
+          <t>91785A247</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>13.14</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1915,26 +2295,34 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>91785A242</t>
+          <t>91785A248</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>13.98</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+          <t>12.17</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1969,26 +2357,34 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>91785A244</t>
+          <t>91785A251</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>14.35</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2023,26 +2419,34 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>91785A245</t>
+          <t>91785A253</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>18.11</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2077,26 +2481,34 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>91785A247</t>
+          <t>91785A825</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>9.81</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2131,26 +2543,34 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>91785A248</t>
+          <t>91785A826</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>12.17</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2185,26 +2605,34 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>91785A251</t>
+          <t>91785A827</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2239,44 +2667,96 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>91785A253</t>
+          <t>91785A829</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>7.80</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>5/8"</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.448"</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0.128"</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>91785A830</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>13.87</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
           <t>10-32</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2316,21 +2796,29 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>91785A825</t>
+          <t>91785A831</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2365,26 +2853,34 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>91785A826</t>
+          <t>91785A833</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>13.02</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2419,26 +2915,34 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>91785A827</t>
+          <t>91785A835</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>13.14</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+          <t>12.17</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2473,26 +2977,34 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>91785A829</t>
+          <t>91785A836</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>13.98</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2527,26 +3039,34 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>91785A830</t>
+          <t>91785A838</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>13.87</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2561,12 +3081,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.448"</t>
+          <t>0.511"</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.128"</t>
+          <t>0.134"</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2581,21 +3101,29 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>91785A831</t>
+          <t>91785A291</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>18.11</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>12-24</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2615,12 +3143,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.448"</t>
+          <t>0.511"</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.128"</t>
+          <t>0.134"</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2640,21 +3168,29 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>91785A833</t>
+          <t>91785A296</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>9.81</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+          <t>12.56</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>12-24</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2669,12 +3205,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.448"</t>
+          <t>0.573"</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.128"</t>
+          <t>0.150"</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2694,21 +3230,29 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>91785A835</t>
+          <t>91785A535</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>12.17</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2723,12 +3267,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.448"</t>
+          <t>0.573"</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.128"</t>
+          <t>0.150"</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2748,21 +3292,29 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>91785A836</t>
+          <t>91785A537</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2777,12 +3329,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.448"</t>
+          <t>0.573"</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.128"</t>
+          <t>0.150"</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2797,44 +3349,96 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>91785A838</t>
+          <t>91785A539</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>7.80</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>12-24</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.573"</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0.150"</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>91785A540</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2849,12 +3453,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.511"</t>
+          <t>0.573"</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.134"</t>
+          <t>0.150"</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2869,21 +3473,29 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>91785A291</t>
+          <t>91785A541</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2903,12 +3515,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.511"</t>
+          <t>0.573"</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.134"</t>
+          <t>0.150"</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2923,26 +3535,34 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>91785A296</t>
+          <t>91785A542</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>12.56</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2977,17 +3597,17 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>91785A535</t>
+          <t>91785A544</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>8.56</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -2995,12 +3615,16 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3035,17 +3659,17 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>91785A537</t>
+          <t>91785A546</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>10.31</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3053,12 +3677,16 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3093,17 +3721,17 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>91785A539</t>
+          <t>91785A548</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>10.28</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3111,12 +3739,16 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3151,17 +3783,17 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>91785A540</t>
+          <t>91785A550</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3169,22 +3801,26 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3209,17 +3845,17 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>91785A541</t>
+          <t>91785A552</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3227,22 +3863,26 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3267,17 +3907,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>91785A542</t>
+          <t>91785A554</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>7.84</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3285,12 +3925,16 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3330,25 +3974,29 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>91785A544</t>
+          <t>91785A558</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
+          <t>1/4"-28</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3388,25 +4036,29 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>91785A546</t>
+          <t>91785A561</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>10.52</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
+          <t>1/4"-28</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3421,12 +4073,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.573"</t>
+          <t>0.698"</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.150"</t>
+          <t>0.183"</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3446,25 +4098,29 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>91785A548</t>
+          <t>91785A578</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>10.28</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr"/>
+          <t>5/16"-18</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3479,12 +4135,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.573"</t>
+          <t>0.698"</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.150"</t>
+          <t>0.183"</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3499,50 +4155,54 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>91785A550</t>
+          <t>91785A581</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>10.62</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr"/>
+          <t>5/16"-18</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.573"</t>
+          <t>0.698"</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.150"</t>
+          <t>0.183"</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3562,45 +4222,49 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>91785A552</t>
+          <t>91785A583</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr"/>
+          <t>5/16"-18</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.573"</t>
+          <t>0.698"</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.150"</t>
+          <t>0.183"</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3620,47 +4284,91 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>91785A554</t>
+          <t>91785A587</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr"/>
+          <t>5/16"-18</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1/4"-28</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+          <t>2"</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.698"</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0.183"</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>91785A591</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr"/>
+          <t>5/16"-18</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3675,12 +4383,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.573"</t>
+          <t>0.823"</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.150"</t>
+          <t>0.215"</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3695,25 +4403,29 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>91785A558</t>
+          <t>91785A622</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr"/>
+          <t>3/8"-16</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3733,12 +4445,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.573"</t>
+          <t>0.823"</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.150"</t>
+          <t>0.215"</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3753,52 +4465,96 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>91785A561</t>
+          <t>91785A624</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>10.52</t>
+          <t>8.33</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr"/>
+          <t>3/8"-16</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+          <t>1 1/2"</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.823"</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0.215"</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>91785A628</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr"/>
+          <t>3/8"-16</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3813,12 +4569,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.698"</t>
+          <t>0.823"</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.183"</t>
+          <t>0.215"</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3833,511 +4589,29 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>91785A578</t>
+          <t>91785A632</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>12.62</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>3/4"</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.698"</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>0.183"</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>91785A581</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>10.62</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>1"</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.698"</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>0.183"</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>91785A583</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>1 1/2"</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.698"</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>0.183"</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>91785A587</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2"</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.698"</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>0.183"</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>91785A591</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
           <t>3/8"-16</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>3/4"</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.823"</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>0.215"</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>91785A622</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>8.36</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>1"</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0.823"</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>0.215"</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>91785A624</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>8.33</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>1 1/2"</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>0.823"</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>0.215"</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>91785A628</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>10.12</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2"</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>0.823"</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>0.215"</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>91785A632</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>12.62</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
